--- a/DataAnalysis/Data/output/price_analysis.xlsx
+++ b/DataAnalysis/Data/output/price_analysis.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="district_price_per_m2_extremes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="district_adjusted_price_per_m2_extremes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="price_comparison" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +436,110 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>District</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>Price_SharedFlats</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>Price_Adjusted_SharedFlats</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Price_HousingMarket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_SharedFlats_vs_HousingMarket</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_SharedFlats_Adjusted_vs_HousingMarket</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_Original_%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_Adjusted_%</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Spandau</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.5</v>
+        <v>30.54086538461539</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>20.39186391789341</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.341384152837394</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21.19948123177799</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.05047976505602</v>
+      </c>
+      <c r="H2" t="n">
+        <v>226.9415419056369</v>
+      </c>
+      <c r="I2" t="n">
+        <v>118.2959568331155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Friedrichshain-Kreuzberg</t>
+          <t>Reinickendorf</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.75</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>20.76984441268803</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.47216271058341</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.5278372894166</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.29768170210462</v>
+      </c>
+      <c r="H3" t="n">
+        <v>186.4737765168728</v>
+      </c>
+      <c r="I3" t="n">
+        <v>98.33385888568699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -493,42 +547,87 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.809523809523809</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>18.53202099840722</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.1179280113382</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.8820719886618</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.414092987069013</v>
+      </c>
+      <c r="H4" t="n">
+        <v>169.8344508923392</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66.68592366768365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.846153846153846</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>76.92307692307692</v>
+        <v>17.19230769230769</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.3678218974249</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.6321781025751</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.824485794882793</v>
+      </c>
+      <c r="H5" t="n">
+        <v>189.3568224532409</v>
+      </c>
+      <c r="I5" t="n">
+        <v>65.82371748281884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pankow</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.444444444444445</v>
+        <v>29.11538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>18.47527263222872</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.13993599794491</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.9754486174397</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.335336634283806</v>
+      </c>
+      <c r="H6" t="n">
+        <v>139.8314506790923</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52.18591461566414</v>
       </c>
     </row>
     <row r="7">
@@ -537,338 +636,215 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>27.5</v>
       </c>
       <c r="D7" t="n">
-        <v>74.2</v>
+        <v>17.46796253072736</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.52667883982897</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.97332116017103</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.941283690898384</v>
+      </c>
+      <c r="H7" t="n">
+        <v>138.5769603034072</v>
+      </c>
+      <c r="I7" t="n">
+        <v>51.5437601190816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Steglitz-Zehlendorf</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>63.33333333333334</v>
+        <v>19.41263242590854</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.23848794563714</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.76151205436286</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.174144480271407</v>
+      </c>
+      <c r="H8" t="n">
+        <v>126.6119826009795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>46.63783738463992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Charlottenburg-Wilmersdorf</t>
+          <t>Pankow</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.666666666666667</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>105</v>
+        <v>18.87490810992743</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.63586323304723</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.03080343361944</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.2390448768802</v>
+      </c>
+      <c r="H9" t="n">
+        <v>117.5635393201066</v>
+      </c>
+      <c r="I9" t="n">
+        <v>38.42107233946949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Steglitz-Zehlendorf</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.818181818181818</v>
+        <v>29.32183908045977</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>17.33324252455699</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.02911475531228</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.29272432514748</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.304127769244703</v>
+      </c>
+      <c r="H10" t="n">
+        <v>125.0485902620863</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33.03469076814913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Reinickendorf</t>
+          <t>Charlottenburg-Wilmersdorf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.666666666666667</v>
+        <v>28.84615384615385</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>19.28929627733574</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16.42457502011024</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.4215788260436</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.864721257225501</v>
+      </c>
+      <c r="H11" t="n">
+        <v>75.62800748777138</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.44167659569844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.525</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>57.91666666666666</v>
+        <v>17.97484666745213</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17.57533810105219</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.75799523228114</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3995085663999376</v>
+      </c>
+      <c r="H12" t="n">
+        <v>66.90053508317557</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.273120233038476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spandau</t>
+          <t>Friedrichshain-Kreuzberg</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.33333333333333</v>
+        <v>28.125</v>
       </c>
       <c r="D13" t="n">
-        <v>63.63636363636363</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Treptow-Köpenick</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2.243068108490236</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Steglitz-Zehlendorf</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2.279234990546991</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.52631578947368</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mitte</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2.396483744492055</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pankow</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3.170910683971305</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Friedrichshain-Kreuzberg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3.329262599152275</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lichtenberg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3.823818594317278</v>
-      </c>
-      <c r="D7" t="n">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Neukölln</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3.992189913074174</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tempelhof-Schöneberg</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>4.931506849315069</v>
-      </c>
-      <c r="D9" t="n">
-        <v>63.33333333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Charlottenburg-Wilmersdorf</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5.253016420212283</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Marzahn-Hellersdorf</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5.866666666666666</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Reinickendorf</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>6.040968883244126</v>
-      </c>
-      <c r="D12" t="n">
-        <v>46.85661571327998</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Spandau</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>8.962293824373734</v>
-      </c>
-      <c r="D13" t="n">
-        <v>48.27022791310292</v>
+        <v>16.67864346704081</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16.43813941562651</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.68686058437349</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2405040514142982</v>
+      </c>
+      <c r="H13" t="n">
+        <v>71.09600599483703</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.463085604357808</v>
       </c>
     </row>
   </sheetData>

--- a/DataAnalysis/Data/output/price_analysis.xlsx
+++ b/DataAnalysis/Data/output/price_analysis.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.30592580225883</v>
+        <v>31.16170698273666</v>
       </c>
       <c r="D2" t="n">
-        <v>30.55555555555556</v>
+        <v>30.625</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30.32297506360618</v>
+        <v>30.3144676245913</v>
       </c>
       <c r="D3" t="n">
         <v>30</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29.99245913620461</v>
+        <v>30.07451461223216</v>
       </c>
       <c r="D4" t="n">
         <v>30</v>
@@ -504,50 +504,50 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spandau</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30.6194903245398</v>
+        <v>29.48557408791845</v>
       </c>
       <c r="D5" t="n">
-        <v>29.16666666666667</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29.5972206237471</v>
+        <v>31.08476283926247</v>
       </c>
       <c r="D6" t="n">
-        <v>29.03921568627451</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Spandau</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30.85915914234538</v>
+        <v>30.6194903245398</v>
       </c>
       <c r="D7" t="n">
-        <v>28.70833333333334</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -560,42 +560,42 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29.87111333451695</v>
+        <v>29.9776885198542</v>
       </c>
       <c r="D8" t="n">
-        <v>28.63988095238096</v>
+        <v>29.02850877192982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Pankow</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30.52330842292637</v>
+        <v>29.92796413217931</v>
       </c>
       <c r="D9" t="n">
-        <v>28.57142857142857</v>
+        <v>28.89035087719298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pankow</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.64454936439714</v>
+        <v>30.68054449536447</v>
       </c>
       <c r="D10" t="n">
-        <v>28.57142857142857</v>
+        <v>28.84615384615385</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28.70850175821048</v>
+        <v>28.93973636828191</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>28.29710144927536</v>
       </c>
     </row>
     <row r="12">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.23206392418263</v>
+        <v>29.35592648441228</v>
       </c>
       <c r="D12" t="n">
-        <v>27.90697674418605</v>
+        <v>28.09523809523809</v>
       </c>
     </row>
     <row r="13">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30.40524351943608</v>
+        <v>30.66872772425488</v>
       </c>
       <c r="D13" t="n">
-        <v>27.88888888888889</v>
+        <v>28.04761904761905</v>
       </c>
     </row>
     <row r="14">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.24246293234879</v>
+        <v>27.41884656247671</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2828947368421</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.91692727599697</v>
+        <v>19.67619550281314</v>
       </c>
       <c r="D2" t="n">
-        <v>20.21898710751958</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.13743512683662</v>
+        <v>19.03477995695436</v>
       </c>
       <c r="D3" t="n">
-        <v>19.68912114834673</v>
+        <v>19.51364479202366</v>
       </c>
     </row>
     <row r="4">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.68111836537645</v>
+        <v>18.598314975219</v>
       </c>
       <c r="D4" t="n">
-        <v>18.74282150514077</v>
+        <v>18.67518375761195</v>
       </c>
     </row>
     <row r="5">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.23391928935711</v>
+        <v>19.13714138598957</v>
       </c>
       <c r="D5" t="n">
-        <v>18.49568486224217</v>
+        <v>18.33700114681742</v>
       </c>
     </row>
     <row r="6">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.95665159996756</v>
+        <v>18.82573745548559</v>
       </c>
       <c r="D6" t="n">
-        <v>18.30162164886628</v>
+        <v>18.15456181016873</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.10582726202328</v>
+        <v>18.95857842330486</v>
       </c>
       <c r="D7" t="n">
-        <v>17.97916190514046</v>
+        <v>17.85243145838252</v>
       </c>
     </row>
     <row r="8">
@@ -804,74 +804,74 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.58145585820007</v>
+        <v>18.42986563272193</v>
       </c>
       <c r="D8" t="n">
-        <v>17.89907927563942</v>
+        <v>17.79718347112674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Lichtenberg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18.61381419468204</v>
+        <v>18.46710207296916</v>
       </c>
       <c r="D9" t="n">
-        <v>17.81899664613838</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lichtenberg</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.62627467504604</v>
+        <v>18.3573921852684</v>
       </c>
       <c r="D10" t="n">
-        <v>17.81327543424318</v>
+        <v>17.47003829523662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.03276813913053</v>
+        <v>17.66405030947761</v>
       </c>
       <c r="D11" t="n">
-        <v>17.35971301660489</v>
+        <v>17.25384615384615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.73501252020279</v>
+        <v>17.88374849583476</v>
       </c>
       <c r="D12" t="n">
-        <v>17.25384615384615</v>
+        <v>17.22833925957488</v>
       </c>
     </row>
     <row r="13">
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.4035564440531</v>
+        <v>17.15581903895128</v>
       </c>
       <c r="D13" t="n">
-        <v>16.84871568394981</v>
+        <v>16.73453983057948</v>
       </c>
     </row>
     <row r="14">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.53416540572831</v>
+        <v>17.39952779039545</v>
       </c>
       <c r="D14" t="n">
-        <v>16.70355156398345</v>
+        <v>16.61828875316738</v>
       </c>
     </row>
   </sheetData>
@@ -944,114 +944,114 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>81.14285714285714</v>
+        <v>57.91666666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.875</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>63.33333333333334</v>
+        <v>81.14285714285714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Friedrichshain-Kreuzberg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Friedrichshain-Kreuzberg</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pankow</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>63.33333333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Pankow</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D7" t="n">
-        <v>74.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Charlottenburg-Wilmersdorf</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.09375</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="9">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>70</v>
@@ -1088,18 +1088,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Steglitz-Zehlendorf</t>
+          <t>Charlottenburg-Wilmersdorf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.166666666666667</v>
+        <v>2.125</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.666666666666667</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="D12" t="n">
         <v>84.09090909090909</v>
@@ -1120,18 +1120,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Steglitz-Zehlendorf</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.525</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>57.91666666666666</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1172,98 +1172,98 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5322446372380139</v>
+        <v>0.5117904641168637</v>
       </c>
       <c r="D2" t="n">
-        <v>62.85714285714285</v>
+        <v>43.6875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pankow</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5842029138103972</v>
+        <v>0.5305124069678346</v>
       </c>
       <c r="D3" t="n">
-        <v>61.81818181818182</v>
+        <v>62.85714285714285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spandau</t>
+          <t>Pankow</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5892671983722765</v>
+        <v>0.5821908875751723</v>
       </c>
       <c r="D4" t="n">
-        <v>41.1764705882353</v>
+        <v>61.81818181818182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Friedrichshain-Kreuzberg</t>
+          <t>Spandau</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7187868356920228</v>
+        <v>0.5868804139798212</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Friedrichshain-Kreuzberg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.715559793334368</v>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D7" t="n">
-        <v>43.6875</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8808498504865584</v>
+        <v>0.8542691130192367</v>
       </c>
       <c r="D8" t="n">
         <v>59.375</v>
@@ -1284,50 +1284,50 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lichtenberg</t>
+          <t>Reinickendorf</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.025641025641026</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>45.43130686058142</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Charlottenburg-Wilmersdorf</t>
+          <t>Lichtenberg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.666666666666667</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="D10" t="n">
-        <v>42.80583719001632</v>
+        <v>44.98587593420606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Reinickendorf</t>
+          <t>Charlottenburg-Wilmersdorf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.898033048236637</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>42.35294117647059</v>
       </c>
     </row>
     <row r="12">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.333707821640258</v>
+        <v>2.329378839231888</v>
       </c>
       <c r="D12" t="n">
         <v>37.22222222222222</v>
@@ -1433,7 +1433,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>19.68912114834673</v>
+        <v>19.51364479202366</v>
       </c>
       <c r="D2" t="n">
         <v>9.341384152837394</v>
@@ -1442,13 +1442,13 @@
         <v>19.82528251382927</v>
       </c>
       <c r="F2" t="n">
-        <v>10.34773699550933</v>
+        <v>10.17226063918627</v>
       </c>
       <c r="G2" t="n">
         <v>312.230673628891</v>
       </c>
       <c r="H2" t="n">
-        <v>210.7730591763135</v>
+        <v>208.8945757154897</v>
       </c>
     </row>
     <row r="3">
@@ -1458,25 +1458,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.55555555555556</v>
+        <v>30.625</v>
       </c>
       <c r="C3" t="n">
-        <v>20.21898710751958</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>10.47216271058341</v>
       </c>
       <c r="E3" t="n">
-        <v>20.08339284497215</v>
+        <v>20.1528372894166</v>
       </c>
       <c r="F3" t="n">
-        <v>9.746824396936178</v>
+        <v>9.527837289416594</v>
       </c>
       <c r="G3" t="n">
-        <v>291.7788464523705</v>
+        <v>292.4419801943077</v>
       </c>
       <c r="H3" t="n">
-        <v>193.07365313457</v>
+        <v>190.9825176779152</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.03921568627451</v>
+        <v>29.41176470588235</v>
       </c>
       <c r="C4" t="n">
         <v>17.25384615384615</v>
@@ -1495,13 +1495,13 @@
         <v>10.3678218974249</v>
       </c>
       <c r="E4" t="n">
-        <v>18.67139378884961</v>
+        <v>19.04394280845745</v>
       </c>
       <c r="F4" t="n">
         <v>6.886024256421255</v>
       </c>
       <c r="G4" t="n">
-        <v>280.0898392504901</v>
+        <v>283.6831592678832</v>
       </c>
       <c r="H4" t="n">
         <v>166.4172699391332</v>
@@ -1517,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>17.81327543424318</v>
+        <v>17.74193548387097</v>
       </c>
       <c r="D5" t="n">
         <v>11.1179280113382</v>
@@ -1526,69 +1526,69 @@
         <v>18.8820719886618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.695347422904975</v>
+        <v>6.624007472532766</v>
       </c>
       <c r="G5" t="n">
         <v>269.8344508923391</v>
       </c>
       <c r="H5" t="n">
-        <v>160.2211798464334</v>
+        <v>159.5795139685877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>17.81899664613838</v>
+        <v>16.73453983057948</v>
       </c>
       <c r="D6" t="n">
-        <v>12.13993599794491</v>
+        <v>11.52667883982897</v>
       </c>
       <c r="E6" t="n">
-        <v>15.86006400205509</v>
+        <v>15.1399878268377</v>
       </c>
       <c r="F6" t="n">
-        <v>5.679060648193474</v>
+        <v>5.207860990750508</v>
       </c>
       <c r="G6" t="n">
-        <v>230.6437200718351</v>
+        <v>231.3473554457282</v>
       </c>
       <c r="H6" t="n">
-        <v>146.7799883718896</v>
+        <v>145.1809325402162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.2828947368421</v>
+        <v>28.29710144927536</v>
       </c>
       <c r="C7" t="n">
-        <v>16.84871568394981</v>
+        <v>17.47003829523662</v>
       </c>
       <c r="D7" t="n">
-        <v>11.52667883982897</v>
+        <v>12.13993599794491</v>
       </c>
       <c r="E7" t="n">
-        <v>14.75621589701313</v>
+        <v>16.15716545133045</v>
       </c>
       <c r="F7" t="n">
-        <v>5.322036844120834</v>
+        <v>5.330102297291713</v>
       </c>
       <c r="G7" t="n">
-        <v>228.0179321560075</v>
+        <v>233.0910266253923</v>
       </c>
       <c r="H7" t="n">
-        <v>146.1714681052032</v>
+        <v>143.9055222218141</v>
       </c>
     </row>
     <row r="8">
@@ -1598,25 +1598,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.63988095238096</v>
+        <v>29.02850877192982</v>
       </c>
       <c r="C8" t="n">
-        <v>17.89907927563942</v>
+        <v>17.79718347112674</v>
       </c>
       <c r="D8" t="n">
         <v>12.50626454510267</v>
       </c>
       <c r="E8" t="n">
-        <v>16.13361640727829</v>
+        <v>16.52224422682715</v>
       </c>
       <c r="F8" t="n">
-        <v>5.392814730536758</v>
+        <v>5.290918926024078</v>
       </c>
       <c r="G8" t="n">
-        <v>229.0042790082836</v>
+        <v>232.1117442161985</v>
       </c>
       <c r="H8" t="n">
-        <v>143.1209072148449</v>
+        <v>142.3061491058571</v>
       </c>
     </row>
     <row r="9">
@@ -1629,7 +1629,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>18.74282150514077</v>
+        <v>18.67518375761195</v>
       </c>
       <c r="D9" t="n">
         <v>13.23848794563714</v>
@@ -1638,13 +1638,13 @@
         <v>16.76151205436286</v>
       </c>
       <c r="F9" t="n">
-        <v>5.504333559503637</v>
+        <v>5.436695811974817</v>
       </c>
       <c r="G9" t="n">
         <v>226.6119826009795</v>
       </c>
       <c r="H9" t="n">
-        <v>141.5782646938742</v>
+        <v>141.0673472250018</v>
       </c>
     </row>
     <row r="10">
@@ -1654,25 +1654,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.57142857142857</v>
+        <v>28.89035087719298</v>
       </c>
       <c r="C10" t="n">
-        <v>18.30162164886628</v>
+        <v>18.15456181016873</v>
       </c>
       <c r="D10" t="n">
         <v>13.63586323304723</v>
       </c>
       <c r="E10" t="n">
-        <v>14.93556533838134</v>
+        <v>15.25448764414575</v>
       </c>
       <c r="F10" t="n">
-        <v>4.665758415819049</v>
+        <v>4.518698577121501</v>
       </c>
       <c r="G10" t="n">
-        <v>209.5314985426387</v>
+        <v>211.8703479452309</v>
       </c>
       <c r="H10" t="n">
-        <v>134.2168173446573</v>
+        <v>133.1383389514365</v>
       </c>
     </row>
     <row r="11">
@@ -1682,25 +1682,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.57142857142857</v>
+        <v>28.84615384615385</v>
       </c>
       <c r="C11" t="n">
-        <v>17.35971301660489</v>
+        <v>17.22833925957488</v>
       </c>
       <c r="D11" t="n">
         <v>13.02911475531228</v>
       </c>
       <c r="E11" t="n">
-        <v>15.54231381611629</v>
+        <v>15.81703909084156</v>
       </c>
       <c r="F11" t="n">
-        <v>4.330598261292605</v>
+        <v>4.199224504262597</v>
       </c>
       <c r="G11" t="n">
-        <v>219.2891006641822</v>
+        <v>221.3976497090301</v>
       </c>
       <c r="H11" t="n">
-        <v>133.2378549319854</v>
+        <v>132.2295457759359</v>
       </c>
     </row>
     <row r="12">
@@ -1710,25 +1710,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.88888888888889</v>
+        <v>28.04761904761905</v>
       </c>
       <c r="C12" t="n">
-        <v>18.49568486224217</v>
+        <v>18.33700114681742</v>
       </c>
       <c r="D12" t="n">
         <v>16.42457502011024</v>
       </c>
       <c r="E12" t="n">
-        <v>11.46431386877865</v>
+        <v>11.6230440275088</v>
       </c>
       <c r="F12" t="n">
-        <v>2.071109842131925</v>
+        <v>1.912426126707178</v>
       </c>
       <c r="G12" t="n">
-        <v>169.7997595355846</v>
+        <v>170.7661782011258</v>
       </c>
       <c r="H12" t="n">
-        <v>112.6098230218807</v>
+        <v>111.6436871235061</v>
       </c>
     </row>
     <row r="13">
@@ -1738,25 +1738,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.70833333333334</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>17.97916190514046</v>
+        <v>17.85243145838252</v>
       </c>
       <c r="D13" t="n">
         <v>17.57533810105219</v>
       </c>
       <c r="E13" t="n">
-        <v>11.13299523228115</v>
+        <v>11.59132856561448</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4038238040882689</v>
+        <v>0.2770933573303331</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3444157277102</v>
+        <v>165.9522365883848</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2976730334655</v>
+        <v>101.5766032820373</v>
       </c>
     </row>
     <row r="14">
@@ -1766,25 +1766,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.90697674418605</v>
+        <v>28.09523809523809</v>
       </c>
       <c r="C14" t="n">
-        <v>16.70355156398345</v>
+        <v>16.61828875316738</v>
       </c>
       <c r="D14" t="n">
         <v>16.43813941562651</v>
       </c>
       <c r="E14" t="n">
-        <v>11.46883732855954</v>
+        <v>11.65709867961159</v>
       </c>
       <c r="F14" t="n">
-        <v>0.265412148356944</v>
+        <v>0.1801493375408754</v>
       </c>
       <c r="G14" t="n">
-        <v>169.7696803669701</v>
+        <v>170.9149520202393</v>
       </c>
       <c r="H14" t="n">
-        <v>101.6146118587158</v>
+        <v>101.0959229203861</v>
       </c>
     </row>
   </sheetData>

--- a/DataAnalysis/Data/output/price_analysis.xlsx
+++ b/DataAnalysis/Data/output/price_analysis.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.16170698273666</v>
+        <v>32.00931451437039</v>
       </c>
       <c r="D2" t="n">
-        <v>30.625</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="3">
@@ -480,74 +480,74 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30.3144676245913</v>
+        <v>32.02880963379926</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>30.68181818181818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Steglitz-Zehlendorf</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30.07451461223216</v>
+        <v>32.37754828020979</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>30.43478260869565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29.48557408791845</v>
+        <v>32.54536577374718</v>
       </c>
       <c r="D5" t="n">
-        <v>29.41176470588235</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Friedrichshain-Kreuzberg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31.08476283926247</v>
+        <v>31.69583923413475</v>
       </c>
       <c r="D6" t="n">
-        <v>29.16666666666667</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Spandau</t>
+          <t>Pankow</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30.6194903245398</v>
+        <v>31.59720112812752</v>
       </c>
       <c r="D7" t="n">
-        <v>29.16666666666667</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -560,74 +560,74 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29.9776885198542</v>
+        <v>31.47074771861033</v>
       </c>
       <c r="D8" t="n">
-        <v>29.02850877192982</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pankow</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29.92796413217931</v>
+        <v>31.06191807780924</v>
       </c>
       <c r="D9" t="n">
-        <v>28.89035087719298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30.68054449536447</v>
+        <v>30.38642971551391</v>
       </c>
       <c r="D10" t="n">
-        <v>28.84615384615385</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Steglitz-Zehlendorf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28.93973636828191</v>
+        <v>30.36247892374039</v>
       </c>
       <c r="D11" t="n">
-        <v>28.29710144927536</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Friedrichshain-Kreuzberg</t>
+          <t>Spandau</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.35592648441228</v>
+        <v>31.37943695920054</v>
       </c>
       <c r="D12" t="n">
-        <v>28.09523809523809</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="13">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30.66872772425488</v>
+        <v>32.14254502934729</v>
       </c>
       <c r="D13" t="n">
-        <v>28.04761904761905</v>
+        <v>29.08134642356241</v>
       </c>
     </row>
     <row r="14">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.41884656247671</v>
+        <v>30.06208535332368</v>
       </c>
       <c r="D14" t="n">
-        <v>26.66666666666667</v>
+        <v>28.42413793103448</v>
       </c>
     </row>
   </sheetData>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.67619550281314</v>
+        <v>20.28655208772076</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>20.45783205920872</v>
       </c>
     </row>
     <row r="3">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.03477995695436</v>
+        <v>19.66110120818309</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51364479202366</v>
+        <v>19.8726975272548</v>
       </c>
     </row>
     <row r="4">
@@ -740,58 +740,58 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.598314975219</v>
+        <v>18.61404821492857</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67518375761195</v>
+        <v>19.02642489588303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charlottenburg-Wilmersdorf</t>
+          <t>Pankow</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.13714138598957</v>
+        <v>19.4303450493031</v>
       </c>
       <c r="D5" t="n">
-        <v>18.33700114681742</v>
+        <v>18.85305084267608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pankow</t>
+          <t>Charlottenburg-Wilmersdorf</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.82573745548559</v>
+        <v>19.8516023687218</v>
       </c>
       <c r="D6" t="n">
-        <v>18.15456181016873</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18.95857842330486</v>
+        <v>19.25868640460592</v>
       </c>
       <c r="D7" t="n">
-        <v>17.85243145838252</v>
+        <v>18.51115783232631</v>
       </c>
     </row>
     <row r="8">
@@ -804,90 +804,90 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.42986563272193</v>
+        <v>19.17470280955223</v>
       </c>
       <c r="D8" t="n">
-        <v>17.79718347112674</v>
+        <v>18.40602096191135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lichtenberg</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18.46710207296916</v>
+        <v>19.62584312361034</v>
       </c>
       <c r="D9" t="n">
-        <v>17.74193548387097</v>
+        <v>18.30088409149639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Lichtenberg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.3573921852684</v>
+        <v>18.85436513952929</v>
       </c>
       <c r="D10" t="n">
-        <v>17.47003829523662</v>
+        <v>17.88461538461539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.66405030947761</v>
+        <v>18.70418766692685</v>
       </c>
       <c r="D11" t="n">
-        <v>17.25384615384615</v>
+        <v>17.69826237574788</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.88374849583476</v>
+        <v>18.64025942661743</v>
       </c>
       <c r="D12" t="n">
-        <v>17.22833925957488</v>
+        <v>17.54716981132075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.15581903895128</v>
+        <v>18.68632481389417</v>
       </c>
       <c r="D13" t="n">
-        <v>16.73453983057948</v>
+        <v>17.5467032967033</v>
       </c>
     </row>
     <row r="14">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.39952779039545</v>
+        <v>18.48311821058542</v>
       </c>
       <c r="D14" t="n">
-        <v>16.61828875316738</v>
+        <v>17.53795430646904</v>
       </c>
     </row>
   </sheetData>
@@ -944,82 +944,82 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.395348837209302</v>
       </c>
       <c r="D2" t="n">
-        <v>57.91666666666666</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Friedrichshain-Kreuzberg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>1.395348837209302</v>
       </c>
       <c r="D3" t="n">
-        <v>81.14285714285714</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Friedrichshain-Kreuzberg</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.75</v>
+        <v>1.41025641025641</v>
       </c>
       <c r="D4" t="n">
-        <v>85</v>
+        <v>98.33333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8571428571428571</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>68.18181818181819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Spandau</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.875</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D6" t="n">
-        <v>63.33333333333334</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
@@ -1040,50 +1040,50 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>1.530612244897959</v>
       </c>
       <c r="D8" t="n">
-        <v>74.2</v>
+        <v>113.6363636363636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spandau</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.428571428571429</v>
+        <v>1.640625</v>
       </c>
       <c r="D9" t="n">
-        <v>56.81818181818182</v>
+        <v>63.33333333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Reinickendorf</t>
+          <t>Lichtenberg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3.28125</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>84.09090909090909</v>
       </c>
     </row>
     <row r="11">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.125</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D11" t="n">
         <v>105</v>
@@ -1104,18 +1104,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lichtenberg</t>
+          <t>Reinickendorf</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.142857142857143</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>84.09090909090909</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.166666666666667</v>
+        <v>4.0625</v>
       </c>
       <c r="D13" t="n">
         <v>57</v>
@@ -1172,194 +1172,194 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Spandau</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5117904641168637</v>
+        <v>0.5869238416540946</v>
       </c>
       <c r="D2" t="n">
-        <v>43.6875</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Pankow</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5305124069678346</v>
+        <v>0.6483910559156247</v>
       </c>
       <c r="D3" t="n">
-        <v>62.85714285714285</v>
+        <v>61.81818181818182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pankow</t>
+          <t>Friedrichshain-Kreuzberg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5821908875751723</v>
+        <v>1.033913123787827</v>
       </c>
       <c r="D4" t="n">
-        <v>61.81818181818182</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spandau</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5868804139798212</v>
+        <v>1.136879892258618</v>
       </c>
       <c r="D5" t="n">
-        <v>41.1764705882353</v>
+        <v>62.85714285714285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Friedrichshain-Kreuzberg</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.715559793334368</v>
+        <v>1.155123486355444</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>113.6363636363636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Treptow-Köpenick</t>
+          <t>Lichtenberg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7368421052631579</v>
+        <v>1.427891480247501</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>44.9939345974454</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Charlottenburg-Wilmersdorf</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8542691130192367</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>59.375</v>
+        <v>42.35294117647059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reinickendorf</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>1.898580290495006</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lichtenberg</t>
+          <t>Treptow-Köpenick</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.025641025641026</v>
+        <v>2.144535143474881</v>
       </c>
       <c r="D10" t="n">
-        <v>44.98587593420606</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Charlottenburg-Wilmersdorf</t>
+          <t>Steglitz-Zehlendorf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.329457775770699</v>
       </c>
       <c r="D11" t="n">
-        <v>42.35294117647059</v>
+        <v>37.22222222222222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Steglitz-Zehlendorf</t>
+          <t>Marzahn-Hellersdorf</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.329378839231888</v>
+        <v>5.866666666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>37.22222222222222</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marzahn-Hellersdorf</t>
+          <t>Reinickendorf</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.866666666666666</v>
+        <v>7.471618560733551</v>
       </c>
       <c r="D13" t="n">
-        <v>34.75</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1430,25 +1430,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.16666666666667</v>
+        <v>29.25</v>
       </c>
       <c r="C2" t="n">
-        <v>19.51364479202366</v>
+        <v>19.8726975272548</v>
       </c>
       <c r="D2" t="n">
         <v>9.341384152837394</v>
       </c>
       <c r="E2" t="n">
-        <v>19.82528251382927</v>
+        <v>19.90861584716261</v>
       </c>
       <c r="F2" t="n">
-        <v>10.17226063918627</v>
+        <v>10.5313133744174</v>
       </c>
       <c r="G2" t="n">
-        <v>312.230673628891</v>
+        <v>313.1227612678307</v>
       </c>
       <c r="H2" t="n">
-        <v>208.8945757154897</v>
+        <v>212.7382537974158</v>
       </c>
     </row>
     <row r="3">
@@ -1458,25 +1458,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.625</v>
+        <v>31.25</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>20.45783205920872</v>
       </c>
       <c r="D3" t="n">
         <v>10.47216271058341</v>
       </c>
       <c r="E3" t="n">
-        <v>20.1528372894166</v>
+        <v>20.7778372894166</v>
       </c>
       <c r="F3" t="n">
-        <v>9.527837289416594</v>
+        <v>9.985669348625317</v>
       </c>
       <c r="G3" t="n">
-        <v>292.4419801943077</v>
+        <v>298.4101838717425</v>
       </c>
       <c r="H3" t="n">
-        <v>190.9825176779152</v>
+        <v>195.3544136449825</v>
       </c>
     </row>
     <row r="4">
@@ -1486,25 +1486,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.41176470588235</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>17.25384615384615</v>
+        <v>17.5467032967033</v>
       </c>
       <c r="D4" t="n">
         <v>10.3678218974249</v>
       </c>
       <c r="E4" t="n">
-        <v>19.04394280845745</v>
+        <v>19.6321781025751</v>
       </c>
       <c r="F4" t="n">
-        <v>6.886024256421255</v>
+        <v>7.178881399278396</v>
       </c>
       <c r="G4" t="n">
-        <v>283.6831592678832</v>
+        <v>289.3568224532409</v>
       </c>
       <c r="H4" t="n">
-        <v>166.4172699391332</v>
+        <v>169.2419436821291</v>
       </c>
     </row>
     <row r="5">
@@ -1514,81 +1514,81 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>30.68181818181818</v>
       </c>
       <c r="C5" t="n">
-        <v>17.74193548387097</v>
+        <v>17.88461538461539</v>
       </c>
       <c r="D5" t="n">
         <v>11.1179280113382</v>
       </c>
       <c r="E5" t="n">
-        <v>18.8820719886618</v>
+        <v>19.56389017047998</v>
       </c>
       <c r="F5" t="n">
-        <v>6.624007472532766</v>
+        <v>6.766687373277184</v>
       </c>
       <c r="G5" t="n">
-        <v>269.8344508923391</v>
+        <v>275.9670520489832</v>
       </c>
       <c r="H5" t="n">
-        <v>159.5795139685877</v>
+        <v>160.8628457242791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neukölln</t>
+          <t>Tempelhof-Schöneberg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.66666666666667</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>16.73453983057948</v>
+        <v>18.51115783232631</v>
       </c>
       <c r="D6" t="n">
-        <v>11.52667883982897</v>
+        <v>12.13993599794491</v>
       </c>
       <c r="E6" t="n">
-        <v>15.1399878268377</v>
+        <v>17.86006400205509</v>
       </c>
       <c r="F6" t="n">
-        <v>5.207860990750508</v>
+        <v>6.371221834381402</v>
       </c>
       <c r="G6" t="n">
-        <v>231.3473554457282</v>
+        <v>247.1182715055376</v>
       </c>
       <c r="H6" t="n">
-        <v>145.1809325402162</v>
+        <v>152.4815109030224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tempelhof-Schöneberg</t>
+          <t>Neukölln</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.29710144927536</v>
+        <v>28.42413793103448</v>
       </c>
       <c r="C7" t="n">
-        <v>17.47003829523662</v>
+        <v>17.54716981132075</v>
       </c>
       <c r="D7" t="n">
-        <v>12.13993599794491</v>
+        <v>11.52667883982897</v>
       </c>
       <c r="E7" t="n">
-        <v>16.15716545133045</v>
+        <v>16.89745909120551</v>
       </c>
       <c r="F7" t="n">
-        <v>5.330102297291713</v>
+        <v>6.020490971491782</v>
       </c>
       <c r="G7" t="n">
-        <v>233.0910266253923</v>
+        <v>246.5943427938539</v>
       </c>
       <c r="H7" t="n">
-        <v>143.9055222218141</v>
+        <v>152.2309249277315</v>
       </c>
     </row>
     <row r="8">
@@ -1598,25 +1598,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.02850877192982</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>17.79718347112674</v>
+        <v>18.40602096191135</v>
       </c>
       <c r="D8" t="n">
         <v>12.50626454510267</v>
       </c>
       <c r="E8" t="n">
-        <v>16.52224422682715</v>
+        <v>17.49373545489733</v>
       </c>
       <c r="F8" t="n">
-        <v>5.290918926024078</v>
+        <v>5.899756416808687</v>
       </c>
       <c r="G8" t="n">
-        <v>232.1117442161985</v>
+        <v>239.879780983425</v>
       </c>
       <c r="H8" t="n">
-        <v>142.3061491058571</v>
+        <v>147.1744092373208</v>
       </c>
     </row>
     <row r="9">
@@ -1629,7 +1629,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>18.67518375761195</v>
+        <v>19.02642489588303</v>
       </c>
       <c r="D9" t="n">
         <v>13.23848794563714</v>
@@ -1638,13 +1638,13 @@
         <v>16.76151205436286</v>
       </c>
       <c r="F9" t="n">
-        <v>5.436695811974817</v>
+        <v>5.787936950245895</v>
       </c>
       <c r="G9" t="n">
         <v>226.6119826009795</v>
       </c>
       <c r="H9" t="n">
-        <v>141.0673472250018</v>
+        <v>143.7205289154896</v>
       </c>
     </row>
     <row r="10">
@@ -1654,25 +1654,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.89035087719298</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>18.15456181016873</v>
+        <v>18.85305084267608</v>
       </c>
       <c r="D10" t="n">
         <v>13.63586323304723</v>
       </c>
       <c r="E10" t="n">
-        <v>15.25448764414575</v>
+        <v>16.36413676695277</v>
       </c>
       <c r="F10" t="n">
-        <v>4.518698577121501</v>
+        <v>5.217187609628844</v>
       </c>
       <c r="G10" t="n">
-        <v>211.8703479452309</v>
+        <v>220.0080734697706</v>
       </c>
       <c r="H10" t="n">
-        <v>133.1383389514365</v>
+        <v>138.2607798308267</v>
       </c>
     </row>
     <row r="11">
@@ -1682,25 +1682,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.84615384615385</v>
+        <v>30.43478260869565</v>
       </c>
       <c r="C11" t="n">
-        <v>17.22833925957488</v>
+        <v>17.69826237574788</v>
       </c>
       <c r="D11" t="n">
         <v>13.02911475531228</v>
       </c>
       <c r="E11" t="n">
-        <v>15.81703909084156</v>
+        <v>17.40566785338337</v>
       </c>
       <c r="F11" t="n">
-        <v>4.199224504262597</v>
+        <v>4.6691476204356</v>
       </c>
       <c r="G11" t="n">
-        <v>221.3976497090301</v>
+        <v>233.5905637509767</v>
       </c>
       <c r="H11" t="n">
-        <v>132.2295457759359</v>
+        <v>135.836261389377</v>
       </c>
     </row>
     <row r="12">
@@ -1710,81 +1710,81 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.04761904761905</v>
+        <v>29.08134642356241</v>
       </c>
       <c r="C12" t="n">
-        <v>18.33700114681742</v>
+        <v>18.75</v>
       </c>
       <c r="D12" t="n">
         <v>16.42457502011024</v>
       </c>
       <c r="E12" t="n">
-        <v>11.6230440275088</v>
+        <v>12.65677140345217</v>
       </c>
       <c r="F12" t="n">
-        <v>1.912426126707178</v>
+        <v>2.325424979889757</v>
       </c>
       <c r="G12" t="n">
-        <v>170.7661782011258</v>
+        <v>177.059962817639</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6436871235061</v>
+        <v>114.1582048670514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mitte</t>
+          <t>Friedrichshain-Kreuzberg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.16666666666667</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>17.85243145838252</v>
+        <v>17.53795430646904</v>
       </c>
       <c r="D13" t="n">
-        <v>17.57533810105219</v>
+        <v>16.43813941562651</v>
       </c>
       <c r="E13" t="n">
-        <v>11.59132856561448</v>
+        <v>13.56186058437349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2770933573303331</v>
+        <v>1.099814890842531</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9522365883848</v>
+        <v>182.5024063944928</v>
       </c>
       <c r="H13" t="n">
-        <v>101.5766032820373</v>
+        <v>106.6906288055753</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Friedrichshain-Kreuzberg</t>
+          <t>Mitte</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.09523809523809</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>16.61828875316738</v>
+        <v>18.30088409149639</v>
       </c>
       <c r="D14" t="n">
-        <v>16.43813941562651</v>
+        <v>17.57533810105219</v>
       </c>
       <c r="E14" t="n">
-        <v>11.65709867961159</v>
+        <v>12.42466189894781</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1801493375408754</v>
+        <v>0.7255459904441999</v>
       </c>
       <c r="G14" t="n">
-        <v>170.9149520202393</v>
+        <v>170.6937290623387</v>
       </c>
       <c r="H14" t="n">
-        <v>101.0959229203861</v>
+        <v>104.1282050238383</v>
       </c>
     </row>
   </sheetData>
